--- a/ID-Part-2.xlsx
+++ b/ID-Part-2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FreeLancer\negotiation_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CBA93A-6743-442E-80A5-B08797D66328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9929BC85-E61C-407E-B12C-49A63038C20B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="288">
   <si>
     <t>4 â€“ Full Professional Proficiency</t>
   </si>
@@ -862,13 +861,49 @@
   </si>
   <si>
     <t>level of English language proficiency</t>
+  </si>
+  <si>
+    <t>4 – Full Professional Proficiency</t>
+  </si>
+  <si>
+    <t>5 – Native / Bilingual Proficiency</t>
+  </si>
+  <si>
+    <t>huynhthanhdat1984@outlook.com</t>
+  </si>
+  <si>
+    <t>3 – Professional Working Proficiency</t>
+  </si>
+  <si>
+    <t>ryanleepowers91@gmail.com</t>
+  </si>
+  <si>
+    <t>T.kuliga@hotmail.com</t>
+  </si>
+  <si>
+    <t>louisphan.tdm@gmail.com</t>
+  </si>
+  <si>
+    <t>bontamnha@gmail.com</t>
+  </si>
+  <si>
+    <t>catnguyen1111@gmail.com</t>
+  </si>
+  <si>
+    <t>2 – Limited Working Proficiency</t>
+  </si>
+  <si>
+    <t>Thanhnhan173@gmail.com</t>
+  </si>
+  <si>
+    <t>1 – Elementary Proficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +940,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -928,7 +970,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -939,11 +981,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C768E2CA-D3EA-46C9-861A-8C316502DC80}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1254,10 +1302,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC84EFB-435C-480B-BDE4-DEFCA52464E6}">
-  <dimension ref="A1:D316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="E314" sqref="E314"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5391,7 +5441,7 @@
         <v>554369</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -5405,7 +5455,7 @@
         <v>743715</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -5419,7 +5469,7 @@
         <v>902408</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -5433,7 +5483,7 @@
         <v>538288</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -5447,7 +5497,7 @@
         <v>745938</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -5461,7 +5511,7 @@
         <v>378824</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -5475,7 +5525,7 @@
         <v>132430</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -5489,7 +5539,7 @@
         <v>287928</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -5503,7 +5553,7 @@
         <v>253968</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -5517,7 +5567,7 @@
         <v>991767</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -5531,7 +5581,7 @@
         <v>569243</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -5542,7 +5592,7 @@
         <v>777388</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -5555,6 +5605,164 @@
       <c r="D316">
         <v>694886</v>
       </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A317" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D317" s="6">
+        <v>569243</v>
+      </c>
+      <c r="F317" s="6"/>
+      <c r="H317" s="6"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A318" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C318" s="7"/>
+      <c r="D318" s="6">
+        <v>777388</v>
+      </c>
+      <c r="F318" s="6"/>
+      <c r="H318" s="6"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A319" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D319" s="6">
+        <v>647495</v>
+      </c>
+      <c r="F319" s="6"/>
+      <c r="H319" s="6"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A320" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B320" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D320" s="6">
+        <v>694886</v>
+      </c>
+      <c r="F320" s="6"/>
+      <c r="H320" s="6"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D321" s="6">
+        <v>643782</v>
+      </c>
+      <c r="F321" s="6"/>
+      <c r="H321" s="6"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D322" s="6">
+        <v>958848</v>
+      </c>
+      <c r="F322" s="6"/>
+      <c r="H322" s="6"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B323" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D323" s="6">
+        <v>508741</v>
+      </c>
+      <c r="F323" s="6"/>
+      <c r="H323" s="6"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B324" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D324" s="6">
+        <v>167063</v>
+      </c>
+      <c r="F324" s="6"/>
+      <c r="H324" s="6"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D325" s="6">
+        <v>478312</v>
+      </c>
+      <c r="F325" s="6"/>
+      <c r="H325" s="6"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D326" s="6">
+        <v>857575</v>
+      </c>
+      <c r="F326" s="6"/>
+      <c r="H326" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ID-Part-2.xlsx
+++ b/ID-Part-2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="392">
   <si>
     <t>4 â€“ Full Professional Proficiency</t>
   </si>
@@ -897,6 +897,318 @@
   </si>
   <si>
     <t>1 – Elementary Proficiency</t>
+  </si>
+  <si>
+    <t>thuyvan4685@gmail.com</t>
+  </si>
+  <si>
+    <t>vitea070997@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyentrami1403@gmail.com</t>
+  </si>
+  <si>
+    <t>Lytaylor1204@gmail.com</t>
+  </si>
+  <si>
+    <t>lehuynhthanhlan1205@gmail.com</t>
+  </si>
+  <si>
+    <t>maithaotran104@gmail.com</t>
+  </si>
+  <si>
+    <t>namreed78@yahoo.com</t>
+  </si>
+  <si>
+    <t>drbavuvan@gmail.com</t>
+  </si>
+  <si>
+    <t>dung.tlk@due.edu.vn</t>
+  </si>
+  <si>
+    <t>ntmtram201@gmail.com</t>
+  </si>
+  <si>
+    <t>nqui43@gmail.com</t>
+  </si>
+  <si>
+    <t>hanhnguyen1409@gmail.com</t>
+  </si>
+  <si>
+    <t>quanganh.buh@gmail.com</t>
+  </si>
+  <si>
+    <t>nghiemphuongminhtram.kty@yahoo.com</t>
+  </si>
+  <si>
+    <t>Nhung@gfz.potdam.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lethanhxuanhuy@yahoo.com </t>
+  </si>
+  <si>
+    <t>quachtrieukhuong@gmail.com</t>
+  </si>
+  <si>
+    <t>delapaul76@gmail.com</t>
+  </si>
+  <si>
+    <t>Ldbt95@gmail.com</t>
+  </si>
+  <si>
+    <t>Npqnhu@gmail.com</t>
+  </si>
+  <si>
+    <t>phuongbo308@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin.dao87@gmail.com</t>
+  </si>
+  <si>
+    <t>Phiho.tran90@gmail.com</t>
+  </si>
+  <si>
+    <t>Doanbvvt@gmai.com</t>
+  </si>
+  <si>
+    <t>genie.jak@gmail.com</t>
+  </si>
+  <si>
+    <t>Maiphuong1721@gmail.com</t>
+  </si>
+  <si>
+    <t>Wketphan@gmail.com</t>
+  </si>
+  <si>
+    <t>nthhau2011@gmail.com</t>
+  </si>
+  <si>
+    <t>nguyenduythaohubt@gmail.com</t>
+  </si>
+  <si>
+    <t>daothihongsang190456@gmail.com</t>
+  </si>
+  <si>
+    <t>hnnhattra274@gmail.com</t>
+  </si>
+  <si>
+    <t>bkqhuy2009@gmail.com</t>
+  </si>
+  <si>
+    <t>giangkimgiau@gmail.com</t>
+  </si>
+  <si>
+    <t>lxuanky98@gmail.com</t>
+  </si>
+  <si>
+    <t>hothiminhphung1680@gmail.com</t>
+  </si>
+  <si>
+    <t>tvkhanhhqc@gmail.com</t>
+  </si>
+  <si>
+    <t>trquannha0304@gmail.com</t>
+  </si>
+  <si>
+    <t>quanhuuvsang@gmail.com</t>
+  </si>
+  <si>
+    <t>dtntuyen151093@gmail.com</t>
+  </si>
+  <si>
+    <t>bhca4178@gmail.com</t>
+  </si>
+  <si>
+    <t>lntnquynh@gmail.com</t>
+  </si>
+  <si>
+    <t>tranvgau@gmail.com</t>
+  </si>
+  <si>
+    <t>trangttk64@gmail.com</t>
+  </si>
+  <si>
+    <t>doductri.tasco@gmail.com</t>
+  </si>
+  <si>
+    <t>tantnnguyet@gmail.com</t>
+  </si>
+  <si>
+    <t>nongthichiro@gmail.com</t>
+  </si>
+  <si>
+    <t>tonthathao40@gmail.com</t>
+  </si>
+  <si>
+    <t>nthihauapax@gmail.com</t>
+  </si>
+  <si>
+    <t>binhchieutt@gmail.com</t>
+  </si>
+  <si>
+    <t>thachhuongdiep@gmail.com</t>
+  </si>
+  <si>
+    <t>tntinhshs@gmail.com</t>
+  </si>
+  <si>
+    <t>sathuyhang@gmail.com</t>
+  </si>
+  <si>
+    <t>bktam5587@gmail.com</t>
+  </si>
+  <si>
+    <t>vothuongtra@gmail.com</t>
+  </si>
+  <si>
+    <t>tankientruong98@gmail.com</t>
+  </si>
+  <si>
+    <t>kimcamha81@gmail.com</t>
+  </si>
+  <si>
+    <t>ttbchanh@gmail.com</t>
+  </si>
+  <si>
+    <t>tophamnhatquy@gmail.com</t>
+  </si>
+  <si>
+    <t>giangtploi@gmail.com</t>
+  </si>
+  <si>
+    <t>btcamduong70@gmail.com</t>
+  </si>
+  <si>
+    <t>dgminhhue@gmail.com</t>
+  </si>
+  <si>
+    <t>thucbtx@gmail.com</t>
+  </si>
+  <si>
+    <t>hunglqland@gmail.com</t>
+  </si>
+  <si>
+    <t>btvkimhanh@gmail.com</t>
+  </si>
+  <si>
+    <t>tohaotrieu@gmail.com</t>
+  </si>
+  <si>
+    <t>ngothoanhu@gmail.com</t>
+  </si>
+  <si>
+    <t>pckhanhnec@gmail.com</t>
+  </si>
+  <si>
+    <t>ltxhanh.anv@gmail.com</t>
+  </si>
+  <si>
+    <t>trangmai1988@gmail.com</t>
+  </si>
+  <si>
+    <t>ungnguyenvanque@gmail.com</t>
+  </si>
+  <si>
+    <t>ltcambac@gmail.com</t>
+  </si>
+  <si>
+    <t>tonghcau@gmail.com</t>
+  </si>
+  <si>
+    <t>dangcaothile@gmail.com</t>
+  </si>
+  <si>
+    <t>tranlvminh@gmail.com</t>
+  </si>
+  <si>
+    <t>vmkiet89@gmail.com</t>
+  </si>
+  <si>
+    <t>trtloan.wmg@gmail.com</t>
+  </si>
+  <si>
+    <t>doctrimsn@gmail.com</t>
+  </si>
+  <si>
+    <t>fionarobert.cii@gmail.com</t>
+  </si>
+  <si>
+    <t>kelvinjnt.capital@gmail.com</t>
+  </si>
+  <si>
+    <t>dianehumphrey.bsr@gmail.com</t>
+  </si>
+  <si>
+    <t>jeakabraham86@gmail.com</t>
+  </si>
+  <si>
+    <t>camille.bn60@gmail.com</t>
+  </si>
+  <si>
+    <t>texasmar0586@gmail.com</t>
+  </si>
+  <si>
+    <t>jailynnoonan@gmail.com</t>
+  </si>
+  <si>
+    <t>tamhieptruong@gmail.com</t>
+  </si>
+  <si>
+    <t>vkphong2007@gmail.com</t>
+  </si>
+  <si>
+    <t>ngthithanhvi0703@gmail.com</t>
+  </si>
+  <si>
+    <t>tris01042004@gmail.com</t>
+  </si>
+  <si>
+    <t>hangphambve@gmail.com</t>
+  </si>
+  <si>
+    <t>tailieu.hienhuong@gmail.com</t>
+  </si>
+  <si>
+    <t>thitphommavong84@gmail.con</t>
+  </si>
+  <si>
+    <t>lttunghcm741986@gmail.com</t>
+  </si>
+  <si>
+    <t>bubblekaity@gmail.com</t>
+  </si>
+  <si>
+    <t>carrimoon1992@gmail.com</t>
+  </si>
+  <si>
+    <t>trujilloissac85@gmail.com</t>
+  </si>
+  <si>
+    <t>alicedrown2002@gmail.com</t>
+  </si>
+  <si>
+    <t>kevencasey2598@gmail.com</t>
+  </si>
+  <si>
+    <t>alloversmith80@gmail.com</t>
+  </si>
+  <si>
+    <t>javonwarren120879@gmail.com</t>
+  </si>
+  <si>
+    <t>kentudyjohnson@gmail.com</t>
+  </si>
+  <si>
+    <t>breakkennedy1987@gmail.com</t>
+  </si>
+  <si>
+    <t>luongsihlong@gmail.com</t>
+  </si>
+  <si>
+    <t>erikafrost021301@gmail.com</t>
+  </si>
+  <si>
+    <t>China</t>
   </si>
 </sst>
 </file>
@@ -970,7 +1282,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -987,6 +1299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1303,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H326"/>
+  <dimension ref="A1:H430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="E314" sqref="E314"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="D416" sqref="D416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5764,6 +6077,1462 @@
       <c r="F326" s="6"/>
       <c r="H326" s="6"/>
     </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>8</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
+        <v>288</v>
+      </c>
+      <c r="D327">
+        <v>818555</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
+        <v>289</v>
+      </c>
+      <c r="D328">
+        <v>231093</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" t="s">
+        <v>2</v>
+      </c>
+      <c r="C329" t="s">
+        <v>290</v>
+      </c>
+      <c r="D329">
+        <v>403617</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
+      </c>
+      <c r="C330" t="s">
+        <v>291</v>
+      </c>
+      <c r="D330">
+        <v>480966</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>292</v>
+      </c>
+      <c r="D331">
+        <v>548241</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>9</v>
+      </c>
+      <c r="B332" t="s">
+        <v>2</v>
+      </c>
+      <c r="C332" t="s">
+        <v>293</v>
+      </c>
+      <c r="D332">
+        <v>907596</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>7</v>
+      </c>
+      <c r="B333" t="s">
+        <v>2</v>
+      </c>
+      <c r="C333" t="s">
+        <v>294</v>
+      </c>
+      <c r="D333">
+        <v>968338</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>7</v>
+      </c>
+      <c r="B334" t="s">
+        <v>2</v>
+      </c>
+      <c r="C334" t="s">
+        <v>295</v>
+      </c>
+      <c r="D334">
+        <v>986280</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>8</v>
+      </c>
+      <c r="B335" t="s">
+        <v>2</v>
+      </c>
+      <c r="C335" t="s">
+        <v>296</v>
+      </c>
+      <c r="D335">
+        <v>239076</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" t="s">
+        <v>297</v>
+      </c>
+      <c r="D336">
+        <v>674045</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1</v>
+      </c>
+      <c r="C337" t="s">
+        <v>298</v>
+      </c>
+      <c r="D337">
+        <v>261644</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1</v>
+      </c>
+      <c r="C338" t="s">
+        <v>299</v>
+      </c>
+      <c r="D338">
+        <v>427131</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>3</v>
+      </c>
+      <c r="C339" t="s">
+        <v>300</v>
+      </c>
+      <c r="D339">
+        <v>291097</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" t="s">
+        <v>301</v>
+      </c>
+      <c r="D340">
+        <v>929422</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" t="s">
+        <v>2</v>
+      </c>
+      <c r="C341" t="s">
+        <v>302</v>
+      </c>
+      <c r="D341">
+        <v>864894</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" t="s">
+        <v>303</v>
+      </c>
+      <c r="D342">
+        <v>108428</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>2</v>
+      </c>
+      <c r="C343" t="s">
+        <v>304</v>
+      </c>
+      <c r="D343">
+        <v>242475</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>10</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" t="s">
+        <v>305</v>
+      </c>
+      <c r="D344">
+        <v>358340</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" t="s">
+        <v>306</v>
+      </c>
+      <c r="D345">
+        <v>511222</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" t="s">
+        <v>307</v>
+      </c>
+      <c r="D346">
+        <v>891700</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>308</v>
+      </c>
+      <c r="D347">
+        <v>493026</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C348" t="s">
+        <v>309</v>
+      </c>
+      <c r="D348">
+        <v>267859</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>310</v>
+      </c>
+      <c r="D349">
+        <v>831188</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>311</v>
+      </c>
+      <c r="D350">
+        <v>887667</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>12</v>
+      </c>
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" t="s">
+        <v>312</v>
+      </c>
+      <c r="D351">
+        <v>597792</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1</v>
+      </c>
+      <c r="C352" t="s">
+        <v>313</v>
+      </c>
+      <c r="D352">
+        <v>569135</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>13</v>
+      </c>
+      <c r="B353" t="s">
+        <v>2</v>
+      </c>
+      <c r="C353" t="s">
+        <v>314</v>
+      </c>
+      <c r="D353">
+        <v>736239</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+      <c r="C354" t="s">
+        <v>315</v>
+      </c>
+      <c r="D354">
+        <v>934055</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355" t="s">
+        <v>2</v>
+      </c>
+      <c r="C355" t="s">
+        <v>316</v>
+      </c>
+      <c r="D355">
+        <v>549944</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" t="s">
+        <v>317</v>
+      </c>
+      <c r="D356">
+        <v>587615</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C357" t="s">
+        <v>318</v>
+      </c>
+      <c r="D357">
+        <v>957421</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C358" t="s">
+        <v>319</v>
+      </c>
+      <c r="D358">
+        <v>645133</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" t="s">
+        <v>320</v>
+      </c>
+      <c r="D359">
+        <v>898061</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>320</v>
+      </c>
+      <c r="D360">
+        <v>435320</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>2</v>
+      </c>
+      <c r="C361" t="s">
+        <v>321</v>
+      </c>
+      <c r="D361">
+        <v>839348</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>7</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" t="s">
+        <v>322</v>
+      </c>
+      <c r="D362">
+        <v>803124</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" t="s">
+        <v>323</v>
+      </c>
+      <c r="D363">
+        <v>762393</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" t="s">
+        <v>324</v>
+      </c>
+      <c r="D364">
+        <v>103519</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>325</v>
+      </c>
+      <c r="D365">
+        <v>766510</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>326</v>
+      </c>
+      <c r="D366">
+        <v>310817</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>327</v>
+      </c>
+      <c r="D367">
+        <v>392312</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>7</v>
+      </c>
+      <c r="B368" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" t="s">
+        <v>328</v>
+      </c>
+      <c r="D368">
+        <v>535755</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>329</v>
+      </c>
+      <c r="D369">
+        <v>377941</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370" t="s">
+        <v>2</v>
+      </c>
+      <c r="C370" t="s">
+        <v>330</v>
+      </c>
+      <c r="D370">
+        <v>890303</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" t="s">
+        <v>331</v>
+      </c>
+      <c r="D371">
+        <v>147874</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>7</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>332</v>
+      </c>
+      <c r="D372">
+        <v>674282</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>2</v>
+      </c>
+      <c r="C373" t="s">
+        <v>333</v>
+      </c>
+      <c r="D373">
+        <v>863559</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>7</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>334</v>
+      </c>
+      <c r="D374">
+        <v>255557</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" t="s">
+        <v>335</v>
+      </c>
+      <c r="D375">
+        <v>995359</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" t="s">
+        <v>336</v>
+      </c>
+      <c r="D376">
+        <v>509776</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>7</v>
+      </c>
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" t="s">
+        <v>337</v>
+      </c>
+      <c r="D377">
+        <v>772475</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D378">
+        <v>910254</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D379">
+        <v>118827</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D380">
+        <v>650918</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B381" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D381">
+        <v>552319</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D382">
+        <v>172867</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D383">
+        <v>627858</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D384">
+        <v>918017</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D385">
+        <v>189038</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B386" t="s">
+        <v>2</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D386">
+        <v>276211</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B387" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D387">
+        <v>199843</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D388">
+        <v>960801</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D389">
+        <v>283719</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D390">
+        <v>190286</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D391">
+        <v>253766</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D392">
+        <v>280683</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D393">
+        <v>916054</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B394" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D394">
+        <v>947593</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B395" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D395">
+        <v>186966</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D396">
+        <v>915106</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" t="s">
+        <v>4</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D397">
+        <v>443723</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B398" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D398">
+        <v>524030</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D399">
+        <v>121193</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B400" t="s">
+        <v>0</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D400">
+        <v>150394</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D401">
+        <v>769330</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B402" t="s">
+        <v>4</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D402">
+        <v>254260</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B403" t="s">
+        <v>4</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D403">
+        <v>242032</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B404" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D404">
+        <v>318141</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B405" t="s">
+        <v>4</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D405">
+        <v>216541</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B406" t="s">
+        <v>0</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D406">
+        <v>534531</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B407" t="s">
+        <v>4</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D407">
+        <v>437420</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B408" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D408">
+        <v>851005</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B409" t="s">
+        <v>4</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D409">
+        <v>649718</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B410" t="s">
+        <v>4</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D410">
+        <v>315202</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B411" t="s">
+        <v>4</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D411">
+        <v>646371</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B412" t="s">
+        <v>4</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D412">
+        <v>272467</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B413" t="s">
+        <v>2</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D413">
+        <v>428622</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B414" t="s">
+        <v>2</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D414">
+        <v>336412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B415" t="s">
+        <v>3</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D415">
+        <v>423131</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D416">
+        <v>883155</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D417">
+        <v>195319</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1</v>
+      </c>
+      <c r="C418" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D418">
+        <v>121143</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B419" t="s">
+        <v>3</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D419">
+        <v>667906</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D420">
+        <v>191324</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B421" t="s">
+        <v>4</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D421">
+        <v>420470</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B422" t="s">
+        <v>4</v>
+      </c>
+      <c r="C422" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D422">
+        <v>388225</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B423" t="s">
+        <v>0</v>
+      </c>
+      <c r="C423" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D423">
+        <v>393126</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B424" t="s">
+        <v>4</v>
+      </c>
+      <c r="C424" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D424">
+        <v>766814</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B425" t="s">
+        <v>4</v>
+      </c>
+      <c r="C425" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D425">
+        <v>734656</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B426" t="s">
+        <v>4</v>
+      </c>
+      <c r="C426" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D426">
+        <v>948031</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B427" t="s">
+        <v>4</v>
+      </c>
+      <c r="C427" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D427">
+        <v>222117</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D428">
+        <v>737016</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B429" t="s">
+        <v>4</v>
+      </c>
+      <c r="C429" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="D429">
+        <v>955115</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B430" t="s">
+        <v>4</v>
+      </c>
+      <c r="C430" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D430">
+        <v>173897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ID-Part-2.xlsx
+++ b/ID-Part-2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="392">
   <si>
     <t>4 â€“ Full Professional Proficiency</t>
   </si>
@@ -1616,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H430"/>
+  <dimension ref="A1:H439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="D416" sqref="D416"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="C442" sqref="C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7533,6 +7533,105 @@
         <v>173897</v>
       </c>
     </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>7</v>
+      </c>
+      <c r="B431" t="s">
+        <v>2</v>
+      </c>
+      <c r="D431">
+        <v>806700</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>12</v>
+      </c>
+      <c r="B432" t="s">
+        <v>4</v>
+      </c>
+      <c r="D432">
+        <v>550231</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>12</v>
+      </c>
+      <c r="B433" t="s">
+        <v>4</v>
+      </c>
+      <c r="D433">
+        <v>536877</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>12</v>
+      </c>
+      <c r="B434" t="s">
+        <v>4</v>
+      </c>
+      <c r="D434">
+        <v>498512</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>12</v>
+      </c>
+      <c r="B435" t="s">
+        <v>4</v>
+      </c>
+      <c r="D435">
+        <v>387934</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>12</v>
+      </c>
+      <c r="B436" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436">
+        <v>182630</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>12</v>
+      </c>
+      <c r="B437" t="s">
+        <v>4</v>
+      </c>
+      <c r="D437">
+        <v>722782</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>12</v>
+      </c>
+      <c r="B438" t="s">
+        <v>4</v>
+      </c>
+      <c r="D438">
+        <v>578803</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>8</v>
+      </c>
+      <c r="B439" t="s">
+        <v>2</v>
+      </c>
+      <c r="D439">
+        <v>184491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ID-Part-2.xlsx
+++ b/ID-Part-2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="393">
   <si>
     <t>4 â€“ Full Professional Proficiency</t>
   </si>
@@ -1209,6 +1209,9 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>South Vietnam</t>
   </si>
 </sst>
 </file>
@@ -1616,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H439"/>
+  <dimension ref="A1:H455"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="C442" sqref="C442"/>
+      <selection activeCell="F440" sqref="F440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7632,6 +7635,182 @@
         <v>184491</v>
       </c>
     </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>12</v>
+      </c>
+      <c r="B440" t="s">
+        <v>4</v>
+      </c>
+      <c r="D440">
+        <v>909337</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>8</v>
+      </c>
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+      <c r="D441">
+        <v>578679</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442" t="s">
+        <v>4</v>
+      </c>
+      <c r="D442">
+        <v>478061</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>12</v>
+      </c>
+      <c r="B443" t="s">
+        <v>4</v>
+      </c>
+      <c r="D443">
+        <v>280012</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>12</v>
+      </c>
+      <c r="B444" t="s">
+        <v>4</v>
+      </c>
+      <c r="D444">
+        <v>498517</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>12</v>
+      </c>
+      <c r="B445" t="s">
+        <v>4</v>
+      </c>
+      <c r="D445">
+        <v>314866</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>12</v>
+      </c>
+      <c r="B446" t="s">
+        <v>4</v>
+      </c>
+      <c r="D446">
+        <v>414776</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>12</v>
+      </c>
+      <c r="B447" t="s">
+        <v>4</v>
+      </c>
+      <c r="D447">
+        <v>908621</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>10</v>
+      </c>
+      <c r="B448" t="s">
+        <v>4</v>
+      </c>
+      <c r="D448">
+        <v>567761</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>12</v>
+      </c>
+      <c r="B449" t="s">
+        <v>4</v>
+      </c>
+      <c r="D449">
+        <v>106796</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>10</v>
+      </c>
+      <c r="B450" t="s">
+        <v>4</v>
+      </c>
+      <c r="D450">
+        <v>828556</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>10</v>
+      </c>
+      <c r="B451" t="s">
+        <v>4</v>
+      </c>
+      <c r="D451">
+        <v>510589</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>12</v>
+      </c>
+      <c r="B452" t="s">
+        <v>4</v>
+      </c>
+      <c r="D452">
+        <v>481290</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>10</v>
+      </c>
+      <c r="B453" t="s">
+        <v>4</v>
+      </c>
+      <c r="D453">
+        <v>802354</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>12</v>
+      </c>
+      <c r="B454" t="s">
+        <v>4</v>
+      </c>
+      <c r="D454">
+        <v>331311</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>392</v>
+      </c>
+      <c r="B455" t="s">
+        <v>0</v>
+      </c>
+      <c r="D455">
+        <v>872966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ID-Part-2.xlsx
+++ b/ID-Part-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FreeLancer\negotiation_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\python\negotiation_game\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB98133-67C6-4A7D-9BED-21208879323A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="393">
   <si>
     <t>4 â€“ Full Professional Proficiency</t>
   </si>
@@ -1217,7 +1218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1285,7 +1286,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1302,12 +1303,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1618,11 +1618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H455"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="F440" sqref="F440"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="C527" sqref="C527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,13 +6795,13 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="8" t="s">
+      <c r="A378" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B378" t="s">
         <v>0</v>
       </c>
-      <c r="C378" s="8" t="s">
+      <c r="C378" s="3" t="s">
         <v>338</v>
       </c>
       <c r="D378">
@@ -6809,13 +6809,13 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="8" t="s">
+      <c r="A379" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B379" t="s">
         <v>0</v>
       </c>
-      <c r="C379" s="8" t="s">
+      <c r="C379" s="3" t="s">
         <v>339</v>
       </c>
       <c r="D379">
@@ -6823,13 +6823,13 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="8" t="s">
+      <c r="A380" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B380" t="s">
         <v>0</v>
       </c>
-      <c r="C380" s="8" t="s">
+      <c r="C380" s="3" t="s">
         <v>340</v>
       </c>
       <c r="D380">
@@ -6837,13 +6837,13 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="8" t="s">
+      <c r="A381" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B381" t="s">
         <v>4</v>
       </c>
-      <c r="C381" s="8" t="s">
+      <c r="C381" s="3" t="s">
         <v>341</v>
       </c>
       <c r="D381">
@@ -6851,13 +6851,13 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="8" t="s">
+      <c r="A382" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B382" t="s">
         <v>0</v>
       </c>
-      <c r="C382" s="8" t="s">
+      <c r="C382" s="3" t="s">
         <v>342</v>
       </c>
       <c r="D382">
@@ -6865,13 +6865,13 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="8" t="s">
+      <c r="A383" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B383" t="s">
         <v>0</v>
       </c>
-      <c r="C383" s="8" t="s">
+      <c r="C383" s="3" t="s">
         <v>343</v>
       </c>
       <c r="D383">
@@ -6879,13 +6879,13 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="8" t="s">
+      <c r="A384" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B384" t="s">
         <v>4</v>
       </c>
-      <c r="C384" s="8" t="s">
+      <c r="C384" s="3" t="s">
         <v>344</v>
       </c>
       <c r="D384">
@@ -6893,13 +6893,13 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="8" t="s">
+      <c r="A385" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B385" t="s">
         <v>0</v>
       </c>
-      <c r="C385" s="8" t="s">
+      <c r="C385" s="3" t="s">
         <v>345</v>
       </c>
       <c r="D385">
@@ -6907,13 +6907,13 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="8" t="s">
+      <c r="A386" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B386" t="s">
         <v>2</v>
       </c>
-      <c r="C386" s="8" t="s">
+      <c r="C386" s="3" t="s">
         <v>346</v>
       </c>
       <c r="D386">
@@ -6921,13 +6921,13 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="8" t="s">
+      <c r="A387" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B387" t="s">
         <v>0</v>
       </c>
-      <c r="C387" s="8" t="s">
+      <c r="C387" s="3" t="s">
         <v>347</v>
       </c>
       <c r="D387">
@@ -6935,13 +6935,13 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="8" t="s">
+      <c r="A388" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B388" t="s">
         <v>0</v>
       </c>
-      <c r="C388" s="8" t="s">
+      <c r="C388" s="3" t="s">
         <v>348</v>
       </c>
       <c r="D388">
@@ -6949,13 +6949,13 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="8" t="s">
+      <c r="A389" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B389" t="s">
         <v>4</v>
       </c>
-      <c r="C389" s="8" t="s">
+      <c r="C389" s="3" t="s">
         <v>349</v>
       </c>
       <c r="D389">
@@ -6963,13 +6963,13 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="8" t="s">
+      <c r="A390" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B390" t="s">
         <v>4</v>
       </c>
-      <c r="C390" s="8" t="s">
+      <c r="C390" s="3" t="s">
         <v>350</v>
       </c>
       <c r="D390">
@@ -6977,13 +6977,13 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="8" t="s">
+      <c r="A391" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B391" t="s">
         <v>0</v>
       </c>
-      <c r="C391" s="8" t="s">
+      <c r="C391" s="3" t="s">
         <v>351</v>
       </c>
       <c r="D391">
@@ -6991,13 +6991,13 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="8" t="s">
+      <c r="A392" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B392" t="s">
         <v>4</v>
       </c>
-      <c r="C392" s="8" t="s">
+      <c r="C392" s="3" t="s">
         <v>352</v>
       </c>
       <c r="D392">
@@ -7005,13 +7005,13 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="8" t="s">
+      <c r="A393" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B393" t="s">
         <v>0</v>
       </c>
-      <c r="C393" s="8" t="s">
+      <c r="C393" s="3" t="s">
         <v>353</v>
       </c>
       <c r="D393">
@@ -7019,13 +7019,13 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="8" t="s">
+      <c r="A394" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B394" t="s">
         <v>4</v>
       </c>
-      <c r="C394" s="8" t="s">
+      <c r="C394" s="3" t="s">
         <v>354</v>
       </c>
       <c r="D394">
@@ -7033,13 +7033,13 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B395" t="s">
         <v>4</v>
       </c>
-      <c r="C395" s="8" t="s">
+      <c r="C395" s="3" t="s">
         <v>355</v>
       </c>
       <c r="D395">
@@ -7047,13 +7047,13 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="8" t="s">
+      <c r="A396" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B396" t="s">
         <v>0</v>
       </c>
-      <c r="C396" s="8" t="s">
+      <c r="C396" s="3" t="s">
         <v>356</v>
       </c>
       <c r="D396">
@@ -7061,13 +7061,13 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="8" t="s">
+      <c r="A397" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B397" t="s">
         <v>4</v>
       </c>
-      <c r="C397" s="8" t="s">
+      <c r="C397" s="3" t="s">
         <v>357</v>
       </c>
       <c r="D397">
@@ -7075,13 +7075,13 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="8" t="s">
+      <c r="A398" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B398" t="s">
         <v>0</v>
       </c>
-      <c r="C398" s="8" t="s">
+      <c r="C398" s="3" t="s">
         <v>358</v>
       </c>
       <c r="D398">
@@ -7089,13 +7089,13 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="8" t="s">
+      <c r="A399" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B399" t="s">
         <v>0</v>
       </c>
-      <c r="C399" s="8" t="s">
+      <c r="C399" s="3" t="s">
         <v>359</v>
       </c>
       <c r="D399">
@@ -7103,13 +7103,13 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="8" t="s">
+      <c r="A400" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B400" t="s">
         <v>0</v>
       </c>
-      <c r="C400" s="8" t="s">
+      <c r="C400" s="3" t="s">
         <v>360</v>
       </c>
       <c r="D400">
@@ -7117,13 +7117,13 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="8" t="s">
+      <c r="A401" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B401" t="s">
         <v>0</v>
       </c>
-      <c r="C401" s="8" t="s">
+      <c r="C401" s="3" t="s">
         <v>361</v>
       </c>
       <c r="D401">
@@ -7131,13 +7131,13 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="8" t="s">
+      <c r="A402" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B402" t="s">
         <v>4</v>
       </c>
-      <c r="C402" s="8" t="s">
+      <c r="C402" s="3" t="s">
         <v>362</v>
       </c>
       <c r="D402">
@@ -7145,13 +7145,13 @@
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="8" t="s">
+      <c r="A403" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B403" t="s">
         <v>4</v>
       </c>
-      <c r="C403" s="8" t="s">
+      <c r="C403" s="3" t="s">
         <v>363</v>
       </c>
       <c r="D403">
@@ -7159,13 +7159,13 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="8" t="s">
+      <c r="A404" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B404" t="s">
         <v>4</v>
       </c>
-      <c r="C404" s="8" t="s">
+      <c r="C404" s="3" t="s">
         <v>364</v>
       </c>
       <c r="D404">
@@ -7173,13 +7173,13 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="8" t="s">
+      <c r="A405" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B405" t="s">
         <v>4</v>
       </c>
-      <c r="C405" s="8" t="s">
+      <c r="C405" s="3" t="s">
         <v>365</v>
       </c>
       <c r="D405">
@@ -7187,13 +7187,13 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="8" t="s">
+      <c r="A406" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B406" t="s">
         <v>0</v>
       </c>
-      <c r="C406" s="8" t="s">
+      <c r="C406" s="3" t="s">
         <v>366</v>
       </c>
       <c r="D406">
@@ -7201,13 +7201,13 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="8" t="s">
+      <c r="A407" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B407" t="s">
         <v>4</v>
       </c>
-      <c r="C407" s="8" t="s">
+      <c r="C407" s="3" t="s">
         <v>367</v>
       </c>
       <c r="D407">
@@ -7215,13 +7215,13 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="8" t="s">
+      <c r="A408" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B408" t="s">
         <v>4</v>
       </c>
-      <c r="C408" s="8" t="s">
+      <c r="C408" s="3" t="s">
         <v>368</v>
       </c>
       <c r="D408">
@@ -7229,13 +7229,13 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="8" t="s">
+      <c r="A409" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B409" t="s">
         <v>4</v>
       </c>
-      <c r="C409" s="8" t="s">
+      <c r="C409" s="3" t="s">
         <v>369</v>
       </c>
       <c r="D409">
@@ -7243,13 +7243,13 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="8" t="s">
+      <c r="A410" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B410" t="s">
         <v>4</v>
       </c>
-      <c r="C410" s="8" t="s">
+      <c r="C410" s="3" t="s">
         <v>370</v>
       </c>
       <c r="D410">
@@ -7257,13 +7257,13 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="8" t="s">
+      <c r="A411" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B411" t="s">
         <v>4</v>
       </c>
-      <c r="C411" s="8" t="s">
+      <c r="C411" s="3" t="s">
         <v>371</v>
       </c>
       <c r="D411">
@@ -7271,13 +7271,13 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="8" t="s">
+      <c r="A412" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B412" t="s">
         <v>4</v>
       </c>
-      <c r="C412" s="8" t="s">
+      <c r="C412" s="3" t="s">
         <v>372</v>
       </c>
       <c r="D412">
@@ -7285,13 +7285,13 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="8" t="s">
+      <c r="A413" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B413" t="s">
         <v>2</v>
       </c>
-      <c r="C413" s="8" t="s">
+      <c r="C413" s="3" t="s">
         <v>373</v>
       </c>
       <c r="D413">
@@ -7299,13 +7299,13 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="8" t="s">
+      <c r="A414" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B414" t="s">
         <v>2</v>
       </c>
-      <c r="C414" s="8" t="s">
+      <c r="C414" s="3" t="s">
         <v>374</v>
       </c>
       <c r="D414">
@@ -7313,13 +7313,13 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="8" t="s">
+      <c r="A415" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B415" t="s">
         <v>3</v>
       </c>
-      <c r="C415" s="8" t="s">
+      <c r="C415" s="3" t="s">
         <v>375</v>
       </c>
       <c r="D415">
@@ -7327,13 +7327,13 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="8" t="s">
+      <c r="A416" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B416" t="s">
         <v>1</v>
       </c>
-      <c r="C416" s="8" t="s">
+      <c r="C416" s="3" t="s">
         <v>376</v>
       </c>
       <c r="D416">
@@ -7341,13 +7341,13 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="8" t="s">
+      <c r="A417" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B417" t="s">
         <v>1</v>
       </c>
-      <c r="C417" s="8" t="s">
+      <c r="C417" s="3" t="s">
         <v>377</v>
       </c>
       <c r="D417">
@@ -7355,13 +7355,13 @@
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="8" t="s">
+      <c r="A418" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B418" t="s">
         <v>1</v>
       </c>
-      <c r="C418" s="8" t="s">
+      <c r="C418" s="3" t="s">
         <v>378</v>
       </c>
       <c r="D418">
@@ -7369,13 +7369,13 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="8" t="s">
+      <c r="A419" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B419" t="s">
         <v>3</v>
       </c>
-      <c r="C419" s="8" t="s">
+      <c r="C419" s="3" t="s">
         <v>379</v>
       </c>
       <c r="D419">
@@ -7383,13 +7383,13 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="8" t="s">
+      <c r="A420" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B420" t="s">
         <v>4</v>
       </c>
-      <c r="C420" s="8" t="s">
+      <c r="C420" s="3" t="s">
         <v>380</v>
       </c>
       <c r="D420">
@@ -7397,13 +7397,13 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B421" t="s">
         <v>4</v>
       </c>
-      <c r="C421" s="8" t="s">
+      <c r="C421" s="3" t="s">
         <v>381</v>
       </c>
       <c r="D421">
@@ -7411,13 +7411,13 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="8" t="s">
+      <c r="A422" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B422" t="s">
         <v>4</v>
       </c>
-      <c r="C422" s="8" t="s">
+      <c r="C422" s="3" t="s">
         <v>382</v>
       </c>
       <c r="D422">
@@ -7425,13 +7425,13 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="8" t="s">
+      <c r="A423" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B423" t="s">
         <v>0</v>
       </c>
-      <c r="C423" s="8" t="s">
+      <c r="C423" s="3" t="s">
         <v>383</v>
       </c>
       <c r="D423">
@@ -7439,13 +7439,13 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="8" t="s">
+      <c r="A424" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B424" t="s">
         <v>4</v>
       </c>
-      <c r="C424" s="8" t="s">
+      <c r="C424" s="3" t="s">
         <v>384</v>
       </c>
       <c r="D424">
@@ -7453,13 +7453,13 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="8" t="s">
+      <c r="A425" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B425" t="s">
         <v>4</v>
       </c>
-      <c r="C425" s="8" t="s">
+      <c r="C425" s="3" t="s">
         <v>385</v>
       </c>
       <c r="D425">
@@ -7467,13 +7467,13 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="8" t="s">
+      <c r="A426" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B426" t="s">
         <v>4</v>
       </c>
-      <c r="C426" s="8" t="s">
+      <c r="C426" s="3" t="s">
         <v>386</v>
       </c>
       <c r="D426">
@@ -7481,13 +7481,13 @@
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="8" t="s">
+      <c r="A427" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B427" t="s">
         <v>4</v>
       </c>
-      <c r="C427" s="8" t="s">
+      <c r="C427" s="3" t="s">
         <v>387</v>
       </c>
       <c r="D427">
@@ -7495,13 +7495,13 @@
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="8" t="s">
+      <c r="A428" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B428" t="s">
         <v>0</v>
       </c>
-      <c r="C428" s="8" t="s">
+      <c r="C428" s="3" t="s">
         <v>388</v>
       </c>
       <c r="D428">
@@ -7509,13 +7509,13 @@
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="8" t="s">
+      <c r="A429" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B429" t="s">
         <v>4</v>
       </c>
-      <c r="C429" s="8" t="s">
+      <c r="C429" s="3" t="s">
         <v>389</v>
       </c>
       <c r="D429">
@@ -7523,13 +7523,13 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="8" t="s">
+      <c r="A430" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B430" t="s">
         <v>4</v>
       </c>
-      <c r="C430" s="8" t="s">
+      <c r="C430" s="3" t="s">
         <v>390</v>
       </c>
       <c r="D430">
@@ -7809,6 +7809,754 @@
       </c>
       <c r="D455">
         <v>872966</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>12</v>
+      </c>
+      <c r="B456" t="s">
+        <v>4</v>
+      </c>
+      <c r="D456">
+        <v>692429</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>12</v>
+      </c>
+      <c r="B457" t="s">
+        <v>4</v>
+      </c>
+      <c r="D457">
+        <v>722241</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>12</v>
+      </c>
+      <c r="B458" t="s">
+        <v>4</v>
+      </c>
+      <c r="D458">
+        <v>452189</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>10</v>
+      </c>
+      <c r="B459" t="s">
+        <v>4</v>
+      </c>
+      <c r="D459">
+        <v>896490</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>12</v>
+      </c>
+      <c r="B460" t="s">
+        <v>4</v>
+      </c>
+      <c r="D460">
+        <v>166665</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>10</v>
+      </c>
+      <c r="B461" t="s">
+        <v>4</v>
+      </c>
+      <c r="D461">
+        <v>460398</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>10</v>
+      </c>
+      <c r="B462" t="s">
+        <v>4</v>
+      </c>
+      <c r="D462">
+        <v>195268</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>12</v>
+      </c>
+      <c r="B463" t="s">
+        <v>4</v>
+      </c>
+      <c r="D463">
+        <v>960583</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>10</v>
+      </c>
+      <c r="B464" t="s">
+        <v>4</v>
+      </c>
+      <c r="D464">
+        <v>461443</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>12</v>
+      </c>
+      <c r="B465" t="s">
+        <v>4</v>
+      </c>
+      <c r="D465">
+        <v>138449</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>10</v>
+      </c>
+      <c r="B466" t="s">
+        <v>4</v>
+      </c>
+      <c r="D466">
+        <v>588981</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>12</v>
+      </c>
+      <c r="B467" t="s">
+        <v>4</v>
+      </c>
+      <c r="D467">
+        <v>382059</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>12</v>
+      </c>
+      <c r="B468" t="s">
+        <v>4</v>
+      </c>
+      <c r="D468">
+        <v>611797</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>12</v>
+      </c>
+      <c r="B469" t="s">
+        <v>4</v>
+      </c>
+      <c r="D469">
+        <v>563710</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>12</v>
+      </c>
+      <c r="B470" t="s">
+        <v>4</v>
+      </c>
+      <c r="D470">
+        <v>442812</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>12</v>
+      </c>
+      <c r="B471" t="s">
+        <v>4</v>
+      </c>
+      <c r="D471">
+        <v>194133</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>7</v>
+      </c>
+      <c r="B472" t="s">
+        <v>2</v>
+      </c>
+      <c r="D472">
+        <v>807573</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>7</v>
+      </c>
+      <c r="B473" t="s">
+        <v>0</v>
+      </c>
+      <c r="D473">
+        <v>236352</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>7</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>151622</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475" t="s">
+        <v>2</v>
+      </c>
+      <c r="D475">
+        <v>307032</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>7</v>
+      </c>
+      <c r="B476" t="s">
+        <v>2</v>
+      </c>
+      <c r="D476">
+        <v>778692</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>7</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1</v>
+      </c>
+      <c r="D477">
+        <v>437208</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>7</v>
+      </c>
+      <c r="B478" t="s">
+        <v>2</v>
+      </c>
+      <c r="D478">
+        <v>439875</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>7</v>
+      </c>
+      <c r="B479" t="s">
+        <v>2</v>
+      </c>
+      <c r="D479">
+        <v>521727</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>7</v>
+      </c>
+      <c r="B480" t="s">
+        <v>0</v>
+      </c>
+      <c r="D480">
+        <v>540192</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>7</v>
+      </c>
+      <c r="B481" t="s">
+        <v>2</v>
+      </c>
+      <c r="D481">
+        <v>557825</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>7</v>
+      </c>
+      <c r="B482" t="s">
+        <v>4</v>
+      </c>
+      <c r="D482">
+        <v>287413</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>7</v>
+      </c>
+      <c r="B483" t="s">
+        <v>11</v>
+      </c>
+      <c r="D483">
+        <v>190484</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>7</v>
+      </c>
+      <c r="B484" t="s">
+        <v>2</v>
+      </c>
+      <c r="D484">
+        <v>139065</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>7</v>
+      </c>
+      <c r="B485" t="s">
+        <v>2</v>
+      </c>
+      <c r="D485">
+        <v>268667</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>7</v>
+      </c>
+      <c r="B486" t="s">
+        <v>2</v>
+      </c>
+      <c r="D486">
+        <v>753698</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>7</v>
+      </c>
+      <c r="B487" t="s">
+        <v>0</v>
+      </c>
+      <c r="D487">
+        <v>516613</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>7</v>
+      </c>
+      <c r="B488" t="s">
+        <v>0</v>
+      </c>
+      <c r="D488">
+        <v>542303</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>7</v>
+      </c>
+      <c r="B489" t="s">
+        <v>4</v>
+      </c>
+      <c r="D489">
+        <v>510454</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B490" t="s">
+        <v>0</v>
+      </c>
+      <c r="D490">
+        <v>209417</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>7</v>
+      </c>
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+      <c r="D491">
+        <v>155511</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>7</v>
+      </c>
+      <c r="B492" t="s">
+        <v>2</v>
+      </c>
+      <c r="D492">
+        <v>303018</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>7</v>
+      </c>
+      <c r="B493" t="s">
+        <v>2</v>
+      </c>
+      <c r="D493">
+        <v>477895</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>7</v>
+      </c>
+      <c r="B494" t="s">
+        <v>2</v>
+      </c>
+      <c r="D494">
+        <v>533017</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>7</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1</v>
+      </c>
+      <c r="D495">
+        <v>636314</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>7</v>
+      </c>
+      <c r="B496" t="s">
+        <v>2</v>
+      </c>
+      <c r="D496">
+        <v>396115</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>7</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="D497">
+        <v>317109</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>7</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1</v>
+      </c>
+      <c r="D498">
+        <v>747779</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>7</v>
+      </c>
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+      <c r="D499">
+        <v>977393</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500" t="s">
+        <v>2</v>
+      </c>
+      <c r="D500">
+        <v>135771</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>8</v>
+      </c>
+      <c r="B501" t="s">
+        <v>2</v>
+      </c>
+      <c r="D501">
+        <v>673845</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>8</v>
+      </c>
+      <c r="B502" t="s">
+        <v>3</v>
+      </c>
+      <c r="D502">
+        <v>171112</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>8</v>
+      </c>
+      <c r="B503" t="s">
+        <v>2</v>
+      </c>
+      <c r="D503">
+        <v>451200</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>8</v>
+      </c>
+      <c r="B504" t="s">
+        <v>0</v>
+      </c>
+      <c r="D504">
+        <v>630929</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>9</v>
+      </c>
+      <c r="B505" t="s">
+        <v>2</v>
+      </c>
+      <c r="D505">
+        <v>782448</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>9</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1</v>
+      </c>
+      <c r="D506">
+        <v>256547</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>7</v>
+      </c>
+      <c r="B507" t="s">
+        <v>2</v>
+      </c>
+      <c r="D507">
+        <v>950825</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>7</v>
+      </c>
+      <c r="B508" t="s">
+        <v>2</v>
+      </c>
+      <c r="D508">
+        <v>934661</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>9</v>
+      </c>
+      <c r="B509" t="s">
+        <v>3</v>
+      </c>
+      <c r="D509">
+        <v>562309</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>8</v>
+      </c>
+      <c r="B510" t="s">
+        <v>2</v>
+      </c>
+      <c r="D510">
+        <v>357635</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>7</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1</v>
+      </c>
+      <c r="D511">
+        <v>621700</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>8</v>
+      </c>
+      <c r="B512" t="s">
+        <v>2</v>
+      </c>
+      <c r="D512">
+        <v>499669</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>9</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1</v>
+      </c>
+      <c r="D513">
+        <v>393955</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>9</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1</v>
+      </c>
+      <c r="D514">
+        <v>342947</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>7</v>
+      </c>
+      <c r="B515" t="s">
+        <v>2</v>
+      </c>
+      <c r="D515">
+        <v>598278</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>9</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>294375</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>7</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1</v>
+      </c>
+      <c r="D517">
+        <v>226879</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>9</v>
+      </c>
+      <c r="B518" t="s">
+        <v>2</v>
+      </c>
+      <c r="D518">
+        <v>679043</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>9</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1</v>
+      </c>
+      <c r="D519">
+        <v>912385</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>9</v>
+      </c>
+      <c r="B520" t="s">
+        <v>2</v>
+      </c>
+      <c r="D520">
+        <v>924809</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>9</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1</v>
+      </c>
+      <c r="D521">
+        <v>659108</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1</v>
+      </c>
+      <c r="D522">
+        <v>528065</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>9</v>
+      </c>
+      <c r="B523" t="s">
+        <v>2</v>
+      </c>
+      <c r="D523">
+        <v>773365</v>
       </c>
     </row>
   </sheetData>
